--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,36 @@
   </si>
   <si>
     <t>Estatus</t>
+  </si>
+  <si>
+    <t>Se presentan desviaciones en costos y esfuerzo</t>
+  </si>
+  <si>
+    <t>Se genera actualización del plan de métricas</t>
+  </si>
+  <si>
+    <t>Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Desviaciones en costos</t>
+  </si>
+  <si>
+    <t>Se plantea la necesidad de actualizar los pagos a las personas ya que no se tienen contemplados ciertos gastos</t>
+  </si>
+  <si>
+    <t>Judith Jaramillo</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Desviaciones en auditorias</t>
+  </si>
+  <si>
+    <t>Se detecta que se puede mejorar apartir de la atención que se genera en las no conformidades</t>
   </si>
 </sst>
 </file>
@@ -307,8 +337,8 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -359,39 +389,79 @@
       <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>42402</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>42395</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Ricardo Novela</t>
   </si>
   <si>
-    <t>Abierto</t>
+    <t>Cerrado</t>
   </si>
   <si>
     <t>Esfuerzos superiores para el área de soporte</t>
@@ -61,17 +61,34 @@
   <si>
     <t>contratar un nuevo elemento en el área de soporte</t>
   </si>
+  <si>
+    <t>Perdidas monetarias tras el cierre del mes de Febrero</t>
+  </si>
+  <si>
+    <t>Solicitar a ventas prestar mas atención en las ventas realizadas</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Desviación en procesos y productos de venta, implementación y garantia</t>
+  </si>
+  <si>
+    <t>Solicitar a dirección ayuda para requerir apego por el area de ejecución</t>
+  </si>
+  <si>
+    <t>Jovanny Zepda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,13 +110,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -128,12 +138,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -172,7 +176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,15 +200,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,64 +210,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Moneda 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -372,8 +359,8 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3519,7 +3506,9 @@
       <c r="H5" s="10" t="n">
         <v>42431</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="n">
+        <v>42431</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>12</v>
       </c>
@@ -3542,41 +3531,67 @@
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="10" t="n">
         <v>42431</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="n">
+        <v>42431</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>42433</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>42464</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>42433</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>42464</v>
+      </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -3707,170 +3722,170 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="1:29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3593,7 +3593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="n">

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Solicitar a ventas prestar mas atención en las ventas realizadas</t>
   </si>
   <si>
-    <t>Abierto</t>
-  </si>
-  <si>
     <t>Desviación en procesos y productos de venta, implementación y garantia</t>
   </si>
   <si>
@@ -79,14 +76,36 @@
   <si>
     <t>Jovanny Zepda</t>
   </si>
+  <si>
+    <t>Apego bajo en planeación del cronograma de actividades para compras y ventas</t>
+  </si>
+  <si>
+    <t>En área de ventas solicitar atención a realizarlo en Compra crear tarea programada como recordatorio</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Desviación en apego de procesos negativa</t>
+  </si>
+  <si>
+    <t>Notificar al área de Ventas tener cuidado con la nomenclatura y ubicación de archivos</t>
+  </si>
+  <si>
+    <t>Desviación en ventas planeadas para el mes de Marzo</t>
+  </si>
+  <si>
+    <t>En espera de acción correctiva</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -201,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +262,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,8 +382,8 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="J17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -370,10 +393,10 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.2793522267206"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.7165991902834"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.2874493927125"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.1457489878542"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4008097165992"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.4331983805668"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.4251012145749"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="1.28744939271255"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.4251012145749"/>
@@ -3562,9 +3585,11 @@
       <c r="H7" s="10" t="n">
         <v>42464</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="10" t="n">
+        <v>42468</v>
+      </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3574,66 +3599,104 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>42433</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>42464</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="n">
+        <v>42468</v>
+      </c>
       <c r="J8" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>42468</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>42492</v>
+      </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>42468</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>42492</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>42468</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>42492</v>
+      </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -3722,170 +3785,170 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -15,14 +15,49 @@
     <sheet name="Acciones correctivas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acciones correctivas'!$J$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acciones correctivas'!$K$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hp EliteBook</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hp EliteBook:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SI
+NO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -110,6 +145,9 @@
   <si>
     <t>Desviación en ventas planeadas para el mes de Abril</t>
   </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +190,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -204,9 +255,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,44 +661,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AMK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2"/>
-    <col min="2" max="2" width="0" style="2" hidden="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="20.28515625" style="2"/>
-    <col min="5" max="5" width="29.7109375" style="2"/>
-    <col min="6" max="6" width="19.42578125" style="2"/>
-    <col min="7" max="7" width="16.140625" style="2"/>
-    <col min="8" max="8" width="20.28515625" style="2"/>
-    <col min="9" max="9" width="15.42578125" style="2"/>
-    <col min="10" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="12" width="1.28515625" style="2"/>
-    <col min="13" max="1025" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="4" style="1"/>
+    <col min="2" max="2" width="0" style="1" hidden="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1"/>
+    <col min="6" max="6" width="29.7109375" style="1"/>
+    <col min="7" max="7" width="19.42578125" style="1"/>
+    <col min="8" max="8" width="16.140625" style="1"/>
+    <col min="9" max="9" width="20.28515625" style="1"/>
+    <col min="10" max="10" width="15.42578125" style="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="1.28515625" style="1"/>
+    <col min="14" max="1026" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1661,19 +1712,20 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
+      <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1024" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2"/>
+    <row r="2" spans="1:1025" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -2687,8 +2739,9 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
+      <c r="AMK2"/>
     </row>
-    <row r="3" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -3713,523 +3766,547 @@
       <c r="AMH3"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
+      <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:1024" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:1025" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+    <row r="5" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="4">
         <v>42402</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="6">
         <v>42431</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="6">
         <v>42431</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+    <row r="6" spans="1:1025" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="4">
         <v>42402</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="6">
         <v>42431</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="6">
         <v>42431</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="57" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
+    <row r="7" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="6">
         <v>42433</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="6">
         <v>42464</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="6">
         <v>42468</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6">
+    <row r="8" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="6">
         <v>42433</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="6">
         <v>42464</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="6">
         <v>42468</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6">
+    <row r="9" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="6">
         <v>42468</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="7">
         <v>42492</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="6">
         <v>42508</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="57" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6">
+    <row r="10" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="6">
         <v>42468</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="7">
         <v>42492</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="6">
         <v>42508</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6">
+    <row r="11" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="6">
         <v>42468</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="7">
         <v>42492</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6">
+    <row r="12" spans="1:1025" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="6">
         <v>42513</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="6">
         <v>42521</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:1024" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="9">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8">
         <v>14</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="9">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8">
         <v>15</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="9">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8">
         <v>16</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="9">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8">
         <v>17</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="9">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8">
         <v>18</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8">
         <v>19</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8">
         <v>20</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8">
         <v>21</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="9">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8">
         <v>22</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8">
         <v>23</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8">
         <v>24</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8">
         <v>25</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J29">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="K1:K29"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:I4">
+  <conditionalFormatting sqref="C4:J4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J29">
-      <formula1>$L$5:$L$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29">
+      <formula1>$M$5:$M$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K28">
       <formula1>"Abierto,Proceso,Cerrado,Cancelado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acciones correctivas'!$K$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Riesgo</t>
+  </si>
+  <si>
+    <t>Desviación en ventas planeadas para el mes de Mayo</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Presentar esfuerzos superiores a los estimados en la cotización anual de la empresa lo cual provoca perdidas monetarias a la empresa</t>
   </si>
 </sst>
 </file>
@@ -662,10 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AML29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -3826,7 +3839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -3855,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -3884,7 +3897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -3913,7 +3926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -3942,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -3977,7 +3990,9 @@
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4019,9 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
@@ -4025,35 +4042,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6">
+        <v>42527</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6">
+        <v>42528</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" ht="114" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <v>42527</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>42528</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -4281,7 +4326,14 @@
       <c r="K29" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K29"/>
+  <autoFilter ref="K1:K29">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Abierto"/>
+        <filter val="Estatus"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:K2"/>
   </mergeCells>

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -35,7 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hp EliteBook:</t>
         </r>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 SI
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Desviación en ventas planeadas para el mes de Marzo</t>
   </si>
   <si>
-    <t>En espera de acción correctiva</t>
-  </si>
-  <si>
     <t>Fecha
 Compromiso</t>
   </si>
@@ -159,6 +156,18 @@
   </si>
   <si>
     <t>Presentar esfuerzos superiores a los estimados en la cotización anual de la empresa lo cual provoca perdidas monetarias a la empresa</t>
+  </si>
+  <si>
+    <t>Campaña de publicidad.</t>
+  </si>
+  <si>
+    <t>Tercera campaña de publicidad para Desarrollo y beneficio del CMMi</t>
+  </si>
+  <si>
+    <t>Aplicar la medicion resultante en el CMMi para diferenciar tareas de soporte (implementacion y garantia)</t>
+  </si>
+  <si>
+    <t>En espera de acciones correctivas</t>
   </si>
 </sst>
 </file>
@@ -208,14 +217,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -678,7 +687,7 @@
   <dimension ref="A1:AML29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>2</v>
@@ -3795,16 +3804,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>5</v>
@@ -3984,20 +3993,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6">
         <v>42468</v>
@@ -4008,25 +4017,27 @@
       <c r="I11" s="7">
         <v>42492</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>42558</v>
+      </c>
       <c r="K11" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G12" s="6">
         <v>42513</v>
@@ -4037,9 +4048,11 @@
       <c r="I12" s="6">
         <v>42521</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>42558</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
@@ -4049,13 +4062,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
         <v>42527</v>
@@ -4066,9 +4079,11 @@
       <c r="I13" s="6">
         <v>42528</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6">
+        <v>42557</v>
+      </c>
       <c r="K13" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1025" ht="114" x14ac:dyDescent="0.25">
@@ -4078,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6">
         <v>42527</v>
@@ -4095,40 +4110,68 @@
       <c r="I14" s="6">
         <v>42528</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>42528</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6">
+        <v>42557</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42558</v>
+      </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" ht="114" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
         <v>12</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6">
+        <v>42557</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6">
+        <v>42558</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>

--- a/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Acciones_correctivas_2016.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Acciones Correctivas</t>
   </si>
@@ -687,7 +687,7 @@
   <dimension ref="A1:AML29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
@@ -4086,7 +4086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
@@ -4117,7 +4117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5">
@@ -4141,9 +4141,11 @@
       <c r="I15" s="6">
         <v>42558</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <v>42593</v>
+      </c>
       <c r="K15" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1025" ht="114" x14ac:dyDescent="0.25">
@@ -4152,7 +4154,9 @@
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
@@ -4173,20 +4177,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6">
+        <v>42593</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="6">
+        <v>42597</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
